--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20488.94036245809</v>
+        <v>41935.96404980176</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23578400.23344322</v>
+        <v>23388853.11477079</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3217409.497462586</v>
+        <v>3281460.369748864</v>
       </c>
     </row>
     <row r="11">
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>13.3728030034947</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>55.7074149400109</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>16.60480826997839</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>18.93923388817933</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>57.26369868547819</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>95.58816348277705</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.9126282800759</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>133.9126282800759</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>133.9126282800759</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>133.9126282800759</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>94.81002161004341</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>94.81002161004341</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>94.81002161004341</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>94.81002161004341</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>55.7074149400109</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>55.7074149400109</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>55.7074149400109</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>41.42139124556543</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>49.45749646190338</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>87.78196125920223</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>126.1064260565011</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.096926448266574</v>
       </c>
     </row>
   </sheetData>
@@ -22559,49 +22561,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H2" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I2" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J2" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K2" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L2" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226639</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N2" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O2" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P2" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026311</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R2" t="n">
-        <v>140.6675721459498</v>
+        <v>145.2220847311544</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167796</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,22 +22640,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H3" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I3" t="n">
-        <v>77.55183396885138</v>
+        <v>78.88749661679191</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979123</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043561</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22665,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380177</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R3" t="n">
-        <v>106.0597524204047</v>
+        <v>108.4683690375062</v>
       </c>
       <c r="S3" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H4" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I4" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J4" t="n">
-        <v>89.17212966257721</v>
+        <v>91.4715335088371</v>
       </c>
       <c r="K4" t="n">
-        <v>66.8579709251007</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L4" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M4" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N4" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O4" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703003</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q4" t="n">
-        <v>106.7074780912847</v>
+        <v>109.4308687082193</v>
       </c>
       <c r="R4" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S4" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,49 +22798,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.0170240739369</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H5" t="n">
-        <v>326.3074893360965</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I5" t="n">
-        <v>160.9084221286138</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679381</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916993</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L5" t="n">
-        <v>32.87119109810837</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917244</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126155</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R5" t="n">
-        <v>134.8218408634681</v>
+        <v>140.6675721459498</v>
       </c>
       <c r="S5" t="n">
-        <v>179.7218745449422</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T5" t="n">
-        <v>217.4676389752864</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,19 +22877,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H6" t="n">
-        <v>105.5916109993956</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330533</v>
+        <v>77.55183396885138</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K6" t="n">
-        <v>26.7578748098077</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219081</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.1697293391627</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R6" t="n">
-        <v>102.9682853879423</v>
+        <v>106.0597524204047</v>
       </c>
       <c r="S6" t="n">
-        <v>158.905408270449</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T6" t="n">
-        <v>197.3919390740697</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0995470698808</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I7" t="n">
-        <v>138.1067275372333</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J7" t="n">
-        <v>86.2208375662932</v>
+        <v>89.17212966257721</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979794</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899255</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215853</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.2119976362414</v>
+        <v>106.7074780912847</v>
       </c>
       <c r="R7" t="n">
-        <v>151.3616578248528</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S7" t="n">
-        <v>213.9658230228616</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T7" t="n">
-        <v>225.481393154608</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23042,7 +23044,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K8" t="n">
         <v>56.54227989916996</v>
@@ -23051,13 +23053,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P8" t="n">
         <v>46.34579576917247</v>
@@ -23118,10 +23120,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K9" t="n">
         <v>26.75787480980772</v>
@@ -23200,7 +23202,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K10" t="n">
         <v>62.00809140979796</v>
@@ -23215,10 +23217,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q10" t="n">
         <v>103.2119976362414</v>
@@ -23270,22 +23272,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H11" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I11" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J11" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K11" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L11" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R11" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S11" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H12" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I12" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J12" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K12" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R12" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S12" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I13" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J13" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K13" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N13" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O13" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P13" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R13" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S13" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,22 +23509,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H14" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J14" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K14" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L14" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R14" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I15" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J15" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K15" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R15" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I16" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J16" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K16" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N16" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O16" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P16" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S16" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,22 +23746,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H17" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J17" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K17" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L17" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R17" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I18" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J18" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K18" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R18" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I19" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J19" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K19" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L19" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M19" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N19" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O19" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P19" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S19" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,22 +23983,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H20" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J20" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726245</v>
       </c>
       <c r="K20" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L20" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118046</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243395</v>
       </c>
       <c r="R20" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I21" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J21" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K21" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R21" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I22" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J22" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K22" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L22" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877139</v>
       </c>
       <c r="N22" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O22" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P22" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S22" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,22 +24220,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H23" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J23" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K23" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L23" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R23" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S23" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H24" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I24" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J24" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K24" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R24" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H25" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I25" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J25" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K25" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L25" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M25" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N25" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O25" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P25" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R25" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S25" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,22 +24457,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I26" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J26" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K26" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L26" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R26" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S26" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I27" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J27" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K27" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R27" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S27" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H28" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I28" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J28" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K28" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L28" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M28" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N28" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O28" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P28" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S28" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,22 +24694,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H29" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J29" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K29" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L29" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R29" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H30" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I30" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J30" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K30" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R30" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I31" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J31" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K31" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L31" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M31" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N31" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O31" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P31" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R31" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S31" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,22 +24931,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I32" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J32" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K32" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L32" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R32" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H33" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I33" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J33" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K33" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R33" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I34" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J34" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K34" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L34" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M34" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N34" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O34" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P34" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S34" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,22 +25168,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H35" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J35" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K35" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L35" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R35" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S35" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I36" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J36" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K36" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R36" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H37" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I37" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J37" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K37" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L37" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M37" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N37" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O37" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P37" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S37" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,22 +25405,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J38" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K38" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L38" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R38" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S38" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H39" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I39" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J39" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K39" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R39" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I40" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J40" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K40" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L40" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M40" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N40" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O40" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P40" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S40" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,22 +25642,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9370783158017</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0400019133721</v>
+        <v>325.4887448405939</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9014836333536</v>
+        <v>157.8263132881047</v>
       </c>
       <c r="J41" t="n">
-        <v>69.70579724700553</v>
+        <v>65.13728705726244</v>
       </c>
       <c r="K41" t="n">
-        <v>53.21989217810253</v>
+        <v>46.37287966777356</v>
       </c>
       <c r="L41" t="n">
-        <v>28.74947534450564</v>
+        <v>20.25515087118043</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>42.58990408143413</v>
+        <v>34.84949581712632</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171739</v>
+        <v>74.82986001243393</v>
       </c>
       <c r="R41" t="n">
-        <v>133.1811664518765</v>
+        <v>129.7999481340049</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1266962566148</v>
+        <v>177.9001105814353</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3533046710778</v>
+        <v>217.1176764190494</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2364001718898</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6128250736805</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4566448252536</v>
+        <v>105.1784969507712</v>
       </c>
       <c r="I42" t="n">
-        <v>75.35636030051944</v>
+        <v>74.36477954907213</v>
       </c>
       <c r="J42" t="n">
-        <v>60.52422152698378</v>
+        <v>57.80324815540079</v>
       </c>
       <c r="K42" t="n">
-        <v>24.50126734687161</v>
+        <v>19.8506904645741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38587124096644</v>
+        <v>46.70956981547315</v>
       </c>
       <c r="R42" t="n">
-        <v>102.1006281848752</v>
+        <v>100.3124986157684</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6458343615066</v>
+        <v>158.1108860198022</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3356112293665</v>
+        <v>197.2195268076366</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8933102329794</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4025366526095</v>
+        <v>167.3783916561348</v>
       </c>
       <c r="H43" t="n">
-        <v>156.9953819045248</v>
+        <v>156.7807109358685</v>
       </c>
       <c r="I43" t="n">
-        <v>137.7543979186262</v>
+        <v>137.0282920246438</v>
       </c>
       <c r="J43" t="n">
-        <v>85.39252213584972</v>
+        <v>83.68547088509352</v>
       </c>
       <c r="K43" t="n">
-        <v>60.64691470913344</v>
+        <v>57.84170511871758</v>
       </c>
       <c r="L43" t="n">
-        <v>47.39929435887775</v>
+        <v>43.80959188300443</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615329</v>
+        <v>42.89987711877137</v>
       </c>
       <c r="N43" t="n">
-        <v>37.63776203285606</v>
+        <v>33.94291907233412</v>
       </c>
       <c r="O43" t="n">
-        <v>55.28283671961447</v>
+        <v>51.87005121790979</v>
       </c>
       <c r="P43" t="n">
-        <v>66.55853351624533</v>
+        <v>63.63830594262306</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.230949233282</v>
+        <v>100.2091350284839</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8348675305268</v>
+        <v>149.7492206890403</v>
       </c>
       <c r="S43" t="n">
-        <v>213.761646517762</v>
+        <v>213.3408650791996</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4313342305617</v>
+        <v>225.3281692456247</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2856154818187</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>326.5613111676754</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>341.3102386171882</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,22 +25879,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9909054436208</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0400019133721</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9014836333536</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J44" t="n">
-        <v>69.70579724700553</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K44" t="n">
-        <v>53.21989217810253</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L44" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,31 +25903,31 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.58990408143413</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.64258426171739</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R44" t="n">
-        <v>133.1811664518765</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1266962566148</v>
+        <v>133.9529273458892</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3533046710778</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>310.5293881140808</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6416251260792</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4566448252536</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I45" t="n">
-        <v>75.35636030051944</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J45" t="n">
-        <v>60.52422152698378</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K45" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.38587124096644</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R45" t="n">
-        <v>102.1006281848752</v>
+        <v>53.96840112576672</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6458343615066</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3356112293665</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952049732688</v>
+        <v>187.1736420517086</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>194.0890065460931</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>217.5978229655046</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4025366526095</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9953819045248</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I46" t="n">
-        <v>137.7543979186262</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J46" t="n">
-        <v>85.39252213584972</v>
+        <v>76.39903162313584</v>
       </c>
       <c r="K46" t="n">
-        <v>60.64691470913344</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L46" t="n">
-        <v>47.39929435887775</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68471506615329</v>
+        <v>26.74453801706942</v>
       </c>
       <c r="N46" t="n">
-        <v>37.63776203285606</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O46" t="n">
-        <v>55.28283671961447</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P46" t="n">
-        <v>66.55853351624533</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.230949233282</v>
+        <v>91.57915019604307</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8348675305268</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S46" t="n">
-        <v>213.761646517762</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4313342305617</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2869324816264</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>258932.5932878123</v>
+        <v>244746.3185967452</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>276476.0502465355</v>
+        <v>258932.5932878123</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>280858.4721141856</v>
+        <v>288468.1846187237</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>280858.4721141856</v>
+        <v>338818.6950440216</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53572.26068023702</v>
+        <v>50637.16936484386</v>
       </c>
       <c r="C2" t="n">
-        <v>57201.94143031769</v>
+        <v>53572.26068023704</v>
       </c>
       <c r="D2" t="n">
         <v>57201.94143031768</v>
       </c>
       <c r="E2" t="n">
-        <v>58108.64940293495</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="F2" t="n">
-        <v>58108.64940293496</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="G2" t="n">
-        <v>58108.64940293494</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="H2" t="n">
-        <v>58108.64940293494</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="I2" t="n">
-        <v>58108.64940293495</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="J2" t="n">
-        <v>58108.64940293496</v>
+        <v>59683.07267973596</v>
       </c>
       <c r="K2" t="n">
-        <v>58108.64940293494</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="L2" t="n">
-        <v>58108.64940293496</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="M2" t="n">
-        <v>58108.64940293495</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="N2" t="n">
-        <v>58108.64940293495</v>
+        <v>59683.07267973596</v>
       </c>
       <c r="O2" t="n">
-        <v>58108.64940293495</v>
+        <v>59683.07267973595</v>
       </c>
       <c r="P2" t="n">
-        <v>58108.64940293495</v>
+        <v>70100.41966428027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285877.3248289937</v>
+        <v>268497.8903749795</v>
       </c>
       <c r="C3" t="n">
-        <v>21079.41386306861</v>
+        <v>16423.34399047571</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19825.02250612891</v>
       </c>
       <c r="E3" t="n">
-        <v>5219.71675551499</v>
+        <v>15976.87965337901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47189.55542397324</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.52591553747069</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>39701.87879260092</v>
+      </c>
+      <c r="C5" t="n">
         <v>40095.05704060869</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40599.70256325733</v>
       </c>
       <c r="D5" t="n">
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="F5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="G5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="H5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="I5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="J5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="K5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="L5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="M5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="N5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="O5" t="n">
-        <v>7113.737365803781</v>
+        <v>7405.628423185238</v>
       </c>
       <c r="P5" t="n">
-        <v>7113.737365803781</v>
+        <v>11005.21086391558</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272400.1211893653</v>
+        <v>-257562.5998027365</v>
       </c>
       <c r="C6" t="n">
-        <v>-4477.174996008245</v>
+        <v>-2946.140350847367</v>
       </c>
       <c r="D6" t="n">
-        <v>16602.23886706035</v>
+        <v>-3222.783639068548</v>
       </c>
       <c r="E6" t="n">
-        <v>45775.19528161618</v>
+        <v>36300.5646031717</v>
       </c>
       <c r="F6" t="n">
-        <v>50994.91203713117</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="G6" t="n">
-        <v>50994.91203713116</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="H6" t="n">
-        <v>50994.91203713116</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="I6" t="n">
-        <v>50994.91203713117</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="J6" t="n">
-        <v>50994.91203713117</v>
+        <v>52277.44425655072</v>
       </c>
       <c r="K6" t="n">
-        <v>50994.91203713116</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="L6" t="n">
-        <v>50994.91203713117</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="M6" t="n">
-        <v>50994.91203713117</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="N6" t="n">
-        <v>50994.91203713117</v>
+        <v>52277.44425655072</v>
       </c>
       <c r="O6" t="n">
-        <v>50994.91203713117</v>
+        <v>52277.44425655071</v>
       </c>
       <c r="P6" t="n">
-        <v>50994.91203713117</v>
+        <v>11880.12746085398</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>278.6366418624276</v>
+      </c>
+      <c r="C3" t="n">
         <v>296.6723413123253</v>
-      </c>
-      <c r="C3" t="n">
-        <v>319.8212184980426</v>
       </c>
       <c r="D3" t="n">
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="F3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="G3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="H3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="I3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="J3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="K3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="L3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="M3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="N3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="O3" t="n">
-        <v>326.3182277891643</v>
+        <v>339.7077258341852</v>
       </c>
       <c r="P3" t="n">
-        <v>326.3182277891643</v>
+        <v>396.859943267568</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>23.14887718571737</v>
+        <v>18.03569944989766</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.14887718571731</v>
       </c>
       <c r="E3" t="n">
-        <v>6.497009291121628</v>
+        <v>19.88650733614264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>57.15221743338282</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H2" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605395</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J2" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K2" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L2" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350063</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N2" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O2" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818232</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946578</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782727</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.638125413388775</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H3" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I3" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J3" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K3" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -31145,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R3" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S3" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T3" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H4" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I4" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J4" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543468</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L4" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M4" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O4" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P4" t="n">
-        <v>64.70375129211759</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R4" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S4" t="n">
-        <v>9.3232930868152</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.28571344119816</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H5" t="n">
-        <v>13.16731277967066</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179213</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798925</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K5" t="n">
-        <v>163.5475711458106</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718789</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M5" t="n">
-        <v>225.7600302817866</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O5" t="n">
-        <v>216.6282505656767</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P5" t="n">
-        <v>184.8871999860971</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q5" t="n">
-        <v>138.8425873731879</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R5" t="n">
-        <v>80.76369695066401</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S5" t="n">
-        <v>29.29819504130311</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T5" t="n">
-        <v>5.62821058884495</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100849</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I6" t="n">
-        <v>23.68487325669467</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515413</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0835641645513</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -31382,22 +31384,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261112</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.81204474685882</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602164</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S6" t="n">
-        <v>12.77776283338877</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751897</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558785</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I7" t="n">
-        <v>17.343747390025</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J7" t="n">
-        <v>40.77458387310291</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073744</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224573</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904505</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307467</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143554</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734356</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320444</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R7" t="n">
-        <v>25.93173355231669</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S7" t="n">
-        <v>10.05077501411061</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T7" t="n">
-        <v>2.464196273673442</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31522,7 +31524,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
@@ -31546,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S8" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T8" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31601,7 +31603,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31631,7 +31633,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U9" t="n">
         <v>0.04525771959877963</v>
@@ -31674,13 +31676,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K10" t="n">
         <v>67.00516676073742</v>
@@ -31695,10 +31697,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q10" t="n">
         <v>48.29300399320443</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H11" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I11" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K11" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L11" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
@@ -31774,25 +31776,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P11" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R11" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S11" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T11" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H12" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I12" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J12" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K12" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31859,19 +31861,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R12" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S12" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T12" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H13" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I13" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J13" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K13" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L13" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M13" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N13" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O13" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P13" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R13" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S13" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T13" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U13" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H14" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I14" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J14" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K14" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L14" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -32011,25 +32013,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P14" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S14" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T14" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H15" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I15" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J15" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K15" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32096,19 +32098,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S15" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T15" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I16" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J16" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K16" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N16" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O16" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P16" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R16" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S16" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T16" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U16" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H17" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I17" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J17" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K17" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L17" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
@@ -32248,25 +32250,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P17" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R17" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S17" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T17" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H18" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I18" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J18" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K18" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32333,19 +32335,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R18" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T18" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H19" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I19" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J19" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K19" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L19" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M19" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N19" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O19" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P19" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R19" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T19" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U19" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H20" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I20" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J20" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K20" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L20" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M20" t="n">
         <v>230.3462332272727</v>
@@ -32485,25 +32487,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620155</v>
       </c>
       <c r="R20" t="n">
-        <v>82.40437136225565</v>
+        <v>85.78558968012719</v>
       </c>
       <c r="S20" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T20" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301342</v>
       </c>
       <c r="H21" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I21" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J21" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K21" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32570,19 +32572,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R21" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T21" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I22" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J22" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K22" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L22" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M22" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883367</v>
       </c>
       <c r="N22" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O22" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P22" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R22" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T22" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U22" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H23" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I23" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K23" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L23" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M23" t="n">
         <v>230.3462332272727</v>
@@ -32722,25 +32724,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P23" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R23" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S23" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T23" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H24" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I24" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J24" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K24" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32807,19 +32809,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R24" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T24" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H25" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I25" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J25" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K25" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L25" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M25" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N25" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O25" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P25" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R25" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T25" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U25" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H26" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I26" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K26" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L26" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M26" t="n">
         <v>230.3462332272727</v>
@@ -32959,25 +32961,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R26" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S26" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T26" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H27" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I27" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J27" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K27" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33044,19 +33046,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R27" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T27" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H28" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I28" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J28" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K28" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L28" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M28" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N28" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O28" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P28" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R28" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T28" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U28" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H29" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I29" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K29" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L29" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M29" t="n">
         <v>230.3462332272727</v>
@@ -33196,25 +33198,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P29" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R29" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S29" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T29" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H30" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I30" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J30" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K30" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33281,19 +33283,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R30" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T30" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H31" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I31" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J31" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K31" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L31" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M31" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N31" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O31" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P31" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R31" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T31" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U31" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H32" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I32" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K32" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L32" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
@@ -33433,25 +33435,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P32" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R32" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S32" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T32" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H33" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I33" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J33" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K33" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33518,19 +33520,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R33" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T33" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H34" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I34" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J34" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K34" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L34" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M34" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N34" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O34" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P34" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R34" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T34" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U34" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H35" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I35" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K35" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L35" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
@@ -33670,25 +33672,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P35" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R35" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S35" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T35" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H36" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I36" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J36" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K36" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33755,19 +33757,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R36" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T36" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H37" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I37" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J37" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K37" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L37" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M37" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N37" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O37" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P37" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R37" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T37" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U37" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H38" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I38" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K38" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L38" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M38" t="n">
         <v>230.3462332272727</v>
@@ -33907,25 +33909,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R38" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S38" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T38" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H39" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I39" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J39" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K39" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33992,19 +33994,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R39" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T39" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H40" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I40" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J40" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K40" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L40" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M40" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N40" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O40" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P40" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R40" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T40" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U40" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311832071514227</v>
+        <v>1.365659199333407</v>
       </c>
       <c r="H41" t="n">
-        <v>13.43480020239508</v>
+        <v>13.98605727517326</v>
       </c>
       <c r="I41" t="n">
-        <v>50.57440593705229</v>
+        <v>52.64957628230122</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3401072796808</v>
+        <v>115.9086174694238</v>
       </c>
       <c r="K41" t="n">
-        <v>166.869958866878</v>
+        <v>173.716971377207</v>
       </c>
       <c r="L41" t="n">
-        <v>207.0169396254816</v>
+        <v>215.5112640988068</v>
       </c>
       <c r="M41" t="n">
         <v>230.3462332272727</v>
@@ -34144,25 +34146,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>221.0289459393429</v>
+        <v>230.0982114216868</v>
       </c>
       <c r="P41" t="n">
-        <v>188.6430916738354</v>
+        <v>196.3834999381432</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.6631056127321</v>
+        <v>147.4758298620156</v>
       </c>
       <c r="R41" t="n">
-        <v>82.40437136225565</v>
+        <v>85.7855896801272</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89337332963048</v>
+        <v>31.11995900481004</v>
       </c>
       <c r="T41" t="n">
-        <v>5.742544893053533</v>
+        <v>5.978173145081992</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1092527359466725</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.7306920895301343</v>
       </c>
       <c r="H42" t="n">
-        <v>6.778799411242828</v>
+        <v>7.056947285725245</v>
       </c>
       <c r="I42" t="n">
-        <v>24.16601969948056</v>
+        <v>25.15760045092787</v>
       </c>
       <c r="J42" t="n">
-        <v>66.31340513968291</v>
+        <v>69.0343785112659</v>
       </c>
       <c r="K42" t="n">
-        <v>113.3401716274874</v>
+        <v>117.9907485097849</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34229,19 +34231,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.59590284505508</v>
+        <v>93.27220427054837</v>
       </c>
       <c r="R42" t="n">
-        <v>43.57887577908878</v>
+        <v>45.36700534819555</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03733674233122</v>
+        <v>13.5722850840356</v>
       </c>
       <c r="T42" t="n">
-        <v>2.829117465455112</v>
+        <v>2.945201887185058</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04807184799540359</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.6125877023239404</v>
       </c>
       <c r="H43" t="n">
-        <v>5.231790602914801</v>
+        <v>5.446461571571039</v>
       </c>
       <c r="I43" t="n">
-        <v>17.69607700863206</v>
+        <v>18.42218290261451</v>
       </c>
       <c r="J43" t="n">
-        <v>41.60289930354639</v>
+        <v>43.30995055430259</v>
       </c>
       <c r="K43" t="n">
-        <v>68.36634346140194</v>
+        <v>71.1715530518178</v>
       </c>
       <c r="L43" t="n">
-        <v>87.48538192236053</v>
+        <v>91.07508439823386</v>
       </c>
       <c r="M43" t="n">
-        <v>92.24106888145177</v>
+        <v>96.02590682883368</v>
       </c>
       <c r="N43" t="n">
-        <v>90.04778243237713</v>
+        <v>93.74262539289907</v>
       </c>
       <c r="O43" t="n">
-        <v>83.17370173222832</v>
+        <v>86.586487233933</v>
       </c>
       <c r="P43" t="n">
-        <v>71.16947053290228</v>
+        <v>74.08969810652455</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2740523961638</v>
+        <v>51.29586660096196</v>
       </c>
       <c r="R43" t="n">
-        <v>26.45852384664272</v>
+        <v>27.54417068812917</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25495151921029</v>
+        <v>10.67573295777267</v>
       </c>
       <c r="T43" t="n">
-        <v>2.514255197719789</v>
+        <v>2.617420182656836</v>
       </c>
       <c r="U43" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03341387467221497</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311832071514227</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H44" t="n">
-        <v>13.43480020239508</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I44" t="n">
-        <v>50.57440593705229</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3401072796808</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K44" t="n">
-        <v>166.869958866878</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L44" t="n">
-        <v>207.0169396254816</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>269.0578138306049</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>268.1246441999231</v>
       </c>
       <c r="O44" t="n">
-        <v>221.0289459393429</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P44" t="n">
-        <v>188.6430916738354</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6631056127321</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R44" t="n">
-        <v>82.40437136225565</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S44" t="n">
-        <v>29.89337332963048</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T44" t="n">
-        <v>5.742544893053533</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H45" t="n">
-        <v>6.778799411242828</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I45" t="n">
-        <v>24.16601969948056</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J45" t="n">
-        <v>66.31340513968291</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K45" t="n">
-        <v>113.3401716274874</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>177.2659603832064</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>150.2513119183193</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>170.0532926866655</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>181.3078250477766</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.59590284505508</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R45" t="n">
-        <v>43.57887577908878</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03733674233122</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T45" t="n">
-        <v>2.829117465455112</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H46" t="n">
-        <v>5.231790602914801</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I46" t="n">
-        <v>17.69607700863206</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J46" t="n">
-        <v>41.60289930354639</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K46" t="n">
-        <v>68.36634346140194</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L46" t="n">
-        <v>87.48538192236053</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M46" t="n">
-        <v>92.24106888145177</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N46" t="n">
-        <v>90.04778243237713</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O46" t="n">
-        <v>83.17370173222832</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P46" t="n">
-        <v>71.16947053290228</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2740523961638</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R46" t="n">
-        <v>26.45852384664272</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25495151921029</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T46" t="n">
-        <v>2.514255197719789</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U46" t="n">
-        <v>0.032096874864508</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>8.117277996300954</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
